--- a/3 проба.xlsx
+++ b/3 проба.xlsx
@@ -430,10 +430,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -445,36 +445,46 @@
     <col width="39.1640625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1"/>
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>айді</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>піб</t>
+        </is>
+      </c>
+    </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Богдана  Петровська</t>
+          <t>7438</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bison  Bison</t>
         </is>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Поліна  Добрянська</t>
         </is>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Поліна  Добрянська</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="n"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Поліна  Добрянська</t>
-        </is>
-      </c>
-    </row>
+    <row r="5" ht="17" customHeight="1"/>
     <row r="6" ht="17" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3 проба.xlsx
+++ b/3 проба.xlsx
@@ -1,3 +1,134 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <color rgb="FF808080"/>
+      <sz val="9.800000000000001"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -292,4 +423,3251 @@
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col width="22.83203125" customWidth="1" min="2" max="2"/>
+    <col width="17.5" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>піб</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>датаВступу</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>датаПрисяги</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>часНаПробу</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>датаІменуванняРозвідувачем</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>діловедення</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>табори</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>пересторогиТаВідзначення</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>неТретьопробник</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>номерПроби</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>датаПроби</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>курінь</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>станиця</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>округа</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>вмілості</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>365</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Андрій  Пивоварчк</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>24-04-2002</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15-07-2005</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15-07-2007</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				test
+			</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				test
+			</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				-
+			</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t># 253</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>01.11.2008</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 43
+		ім. Пилипа Орлика
+		</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мандрівництво 3, Альпіністка 3, Автознавство 3, Домашня зарадність 3, Знавець комп’ютерів 3, Користувач інтернету 3, Лещетарство 3, Пера 3, Провідництво туристів 3, Скелелазіння 3, Український амбасадор 3, Український амбасадор 1, Табірництво 1, Спортові ігри 1, Провідництво туристів 1, Приятель тварин 1, Перша допомога 1, Перо 1, Куховарення 1, Знавець комп’ютерів 1, Домашня зарадність 1, Астрономія 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>366</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Марта  Свистун</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01-07-2000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>01-07-2014</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою10-07-2014</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				молодець :)
+			</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				КВТ Шмавете :)
+			</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				всі :)
+			</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Ти ще не третьопробник, для того щоб ти зміг/ла почати здавати третю пробу:</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 14
+		ім. Соломії Крушельницької
+		</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Шиття 2, Зброєзнавство 1, Військовик 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>367</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Марічка  Чабан</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25-09-2006</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>07-07-2010</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою22-05-2011</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				гурткова 10.08 - 09.09, гуртковий скарбник 09.09 - 06.10гуртковий писар 06.09 - 06.10гуртковий суддя 06.10 - 06.11
+			</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				кур табір "Рейс 22 РМ"міжкур табір "148 м/біт сек"
+			</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				3,4,2,3
+			</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t># 386</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2014-00-00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 22
+		ім. Марічки Підгірянки
+		</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Пера 3, Астрономія 2, Астрономія 1, Астрономія 3, Сигналізація 3, Перо 2, Перо 1, Домашня зарадність 2, Мандрівництво 2, Домашня зарадність 1, Перша допомога 2, Перша допомога 1, Табірництво 1, Куховарення 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>368</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Іван  Блакита</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15-06-2004</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10-05-2009</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25-08-2011</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				гуртковийгуртковий писар,заступник гурткового,курінний писар
+			</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Велика гра 2009303 2009Високий Замок 2010Скіфський степ 2008СВТ 2010Фест 2011303 2 2011
+			</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4;4;3;3
+			</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t># 385</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2013-10-20</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 97
+		ім. Максима Кривоноса
+		</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Пера 3, Перо 2, Перо 1, Радіотехніка 3, Радіотехніка 2, Радіотехніка 1, Спортові ігри 1, Перша допомога 2, Перша допомога 1, Астрономія 2, Астрономія 1, Автознавство 2, Автознавство 1, Природознавство 2, Природознавство 1, Домашня зарадність 2, Домашня зарадність 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>369</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Олеся  Садляк</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>28-09-2001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18-05-2007</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою20-05-2010</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				-
+			</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				-
+			</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				-
+			</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t># 381</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2013-10-20</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 58
+		ім. Катерини Білокур
+		</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Вишивання 3, Вишивання 2, Вишивання 1, Музика 3, Музика 2, Музика 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>370</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Олексій  Сапіга</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30-09-2011</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>07-07-2012</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13-07-2014</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				гуртковийкурінний
+			</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				ОВВТ "Беріг ріки" 2012КМВТ Говерля 2012
+			</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				3,4,4
+			</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t># 399</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2014-00-00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 105
+		ім. Данила Нечая
+		</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Писанкарство 2, Домашня зарадність 1, Знавець комп’ютерів 2, Знавець комп’ютерів 1, Пера 3, Перо 2, Перо 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>371</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Зоряна  Яремко</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30-10-2008</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31-07-2010</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою27-04-2012</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				2009-2010 - гурткова г.ч.6"Форзиції"2011-2012 - курінна2012-2013 - писар
+			</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				1. Курінний виховно-вишкільний табір «Еко-літо – 2009» (4-14.07.2009) поблизу с. Лебедівка, Татарбунарського району Одеської області.2. Окружний виховно-вишкільний табір «Тінь лісу» (8-18. 07.2010)поблизу с. Стрільбичі Старосамбірського району Львівської області.3. Курінний виховно-вишкільний табір «36-те Джемборі» (19-31.07.2010), поблизу оз. Пісочне, Волинська область.4. КМВТ «Говерля» (8-21.08.2011) Буковинські Карпати.5. Курінний виховно-вишкільний табір «АЯ@.com» (13-23.06.2012) поблизу с. Верхнє Гусине Турківського району Львівської області.6. МВТ «Золота Булава» (8-18.08.2012) поблизу с. Ямельниця Сколівського району Львівської області.7. Курінний виховно-вишкільний табір «У затінку казки» (5-15. 07.2013) с. Спас Старосамбірського району Львівської області.8. Крайовий Вишкільний Табір (10-23. 08.2013), ур. Тодір, Івано-Франківська область.
+			</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4 – за працю на рівні куреня;4 – за активну діяльність в курені;4 – за участь в Орликіаді;4 – за участь в Дні Пластуна;4 – за добре виконання обов’язків курінного скарбника;3 – за першунство на ОВВТ «Тінь Лісу»;3 – за добре виконання обов’язків курінної на СВ 2012;3 – за добре ведення діловодства курінної.
+			</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t># 380</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2013-10-20</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 36
+		ім. Анни Ярославни
+		</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Домашня зарадність 2, Астрономія 2, Табірництво 1, Природознавство 1, Перша допомога 1, Музика 1, Любитель/-ка мистецтва 1, Домашня зарадність 1, Перо 1, Астрономія 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>372</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Данило  Туркевич</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Ти ще не третьопробник, для того щоб ти зміг/ла почати здавати третю пробу:</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>373</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ірина  Залога</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20-09-2010</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27-04-2012</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою07-05-2013</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				У гуртку: гурткова, суддя, писар, скарбник, хронікар.
+У курені: суддя, скарбник, курінна.
+			</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				2012: курінний табір Дмитерок "Смітник", ОММТ "Сім риб або я  на морі" М. Гнатів, ЧМ; КМВТ "Метаморфози 2012" Х. Федотова, L.
+2013: "Середземські вогні 2013" (інстр.) Б. Явір-Іскра, Міжкраєвий табір у Німеччині "Гей, у джунглях" К. ден Том.
+2014: Міжкурінний табір Лісовських та Дмитерок "Нескорений Цвіт" (інстр.) Л. Журко, СВ
+			</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4 відзначення 27.04.2012 за активну працю в гуртку.
+2 відзначення 20.09.2012 за першунство на окружному таборі та активну працю з молодшим юнацтвом протягом року.
+2 відзначення 20.09.2013 за першунство на міжкраєвому таборі та активну виховницьку діяльність протягом року.
+			</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t># 431</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>30-10-2015</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 88
+		ім. Ганни Дмитерко
+		</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Музика 3, Перша допомога 2, Домашня зарадність 3, Актороство 3, Домашня зарадність 2, Актороство 2, Музика 2, Перша допомога 1, Музика 1, Куховарення 1, Актороство 1, Журналістика 1, Домашня зарадність 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>374</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Роман  Тимоцко</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10-09-2008</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11-10-2010</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29-01-2012</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Гуртковий суддя, гуртковий, гуртковий писар - 2008 - 2010
+Курінний писар - 4.01.2010 - 11.10.2010
+Курінний суддя - 11.10.2010 - 11.10.2011
+Курінний - 11.10.2011 - 11.10.2012
+			</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				КВВТ "Форум" - 2009 - ст. пл .скоб Дмитро Новицький
+КВВТ "Скоропад" - 2010 - ст. пл. скоб Максим Скопик, ОЗО
+КВВТ "20/91" - 2011 - ст. пл. скоб Роман Андріїв, ОЗО
+КМВТ "Говерля" - 2011 - ст. пл. Ярослав Дмитришин, ОЗО
+КВВТ "Сотня Комтура" - 2012 - ст. пл. скоб Роман Андріїв, ОЗО
+МВТ "Золота Булава" - 2012 - ст. пл. скоб. Юрій Пацевко, ЦМ
+КВВТ "У зворах Бескид" - 2013 - ст. пл. скоб Роман Андріїв, ОЗО
+Крайовий табір Великобританії "Лісова пісня" - 2013 - пл. сен. Ярема Кучинський
+КВВТ "Загублені" - 2014 - ст. пл. скоб Максим Скопик, ОЗО
+Крайовий вишкільний табір - 2014 - ст. пл. скоб Олександр Свистун, ЛЧ
+			</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				ІІІ відзначення - перемога в тереновій грі "Молодь пам'ятає Шухевича" - 5.03.2009 (в курені ч. 5 ім. Р. Г. Купчинського)
+ІІІ відзначення - перемога в "Осінньому Рейді" (капітан команди) - лютий 2011
+ІV відзначення - друге місце в інтелектуальному змазі "Дня пластуна" - лютий 2011
+ІІІ відзначення - перемога в "Осінньому Рейді" (капітан команди) - листопад 2011
+ІІІ відзначення - ІІІ посвідка в "Школі впоряду" - 21.12.2011
+ІІ відзначення - І посвідка в "Почесній варті" - 23.12.2012
+ІІІ відзначення - участь у вишколі булави курінного табору - 15.07.2013
+			</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t># 409</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>08.12.2014</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 91
+		ім. Івана Цяпки-Скоропада
+		</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Домашня зарадність 2, Домашня зарадність 3, Домашня зарадність 1, Теренові ігри та змаги 3, Природознавство 3, Астрономія 3, Український амбасадор 2, Природознавство 2, Перша допомога 2, Перо 2, Мандрівництво 2, Лещетарство 2, Картографія 2, Астрономія 2, Український амбасадор 1, Табірництво 1, Спортові ігри 1, Скаутське побратимство 1, Природознавство 1, Перша допомога 1, Перо 1, Куховарення 1, Знавець комп’ютерів 1, Астрономія 1, Журналістика 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>375</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Вероніка  Крейденкова</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22-11-2008</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18-07-2012</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою13-07-2013</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 23/09/2013
+	Дата закінчення - 23/03/2015
+</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Гурткова суддя (2008 - 2009)
+Гурткова (2009 - 2010)
+Гуртковий хронікар (2010 - 2011)
+Гуртковий скарбник (2011 - 2012)
+Гуртковий писар (2012 - п.н.д.)
+Курінна суддя (2011)
+Курінний писар (2011 - 2012)
+Курінна (2012 - 2013)
+Курінний хронікар (2013 - п.н.д.)
+			</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				КТ "Нога - дупа - нога" (2009, Устя Стефанчук, Гр)
+КТ "Тубільці" (2010, Устя Стефанчук, Гр)
+ОВВТ "Тінь Лісу" (2011, Ксеня Рондяк)
+КТ "Компас" (2011, Софія Папірник, СВ)
+КТ "Просто бути сильною" (2012, Христина Дикун, Ті)
+КМВТ "Метаморфози " (2012, Христина Федотова, L)
+КТ "РІзні" (2013, Софія Каїнська, СВ)
+КЕВТ "Вовча Школа" (2013, Павло Лабінський, СМ)
+КВВТ "Острів щастя" (2014, Софія Каїнська, СВ)
+МВТ "Золота Булава" (2014, Зоряна Удич, Орл)
+Крайовий вишкільний табір 18 (2014, Сашко Свистун, ЛЧ)
+			</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				три 4 відзначень
+п'ять 3 відзначень
+			</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 72
+		ім. Марії-Магдалини Мазепи
+		</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Перша допомога 2, Пера 3, Табірництво 1, Картографія 2, Перо 2, Перша допомога 1, Перо 1, Приятель тварин 1, Куховарення 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>376</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Юрко  Сторчеус</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19.09.2012</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.08.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>05.01.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 20/01/2013
+	Дата закінчення - 01/09/2014
+</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний суддя
+			</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Мамай 2012
+Білий груник2012
+Курінний табір Нащадок
+Герць2013
+КВТ 18
+			</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4,3 відзначення
+			</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> підг к.
+		ім. Героїв Холодного Яру
+		</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Перо 2, Домашня зарадність 3, Пера 3, Знавець комп’ютерів 3, Перша допомога 2, Мандрівництво 2, Знавець комп’ютерів 1, Знавець комп’ютерів 2, Домашня зарадність 2, Їзда верхи 2, Їзда на велосипед 1, Шиття 1, Табірництво 1, Спортові ігри 1, Природознавство 1, Домашня зарадність 1, Куховарення 1, Маскування 1, Перо 1, Перша допомога 1, Їзда верхи 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>377</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Христина  Уграк</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10-10-2010</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>09-06-2013</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою29-12-2013</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 30/12/2013
+	Дата закінчення - 24/03/2015
+</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				2010 хронікар, 2011 гурткова, 2012 скарбник куріний , господар куріний  , заступник гурткової, 2013 заступник гурткової, хорунжа, 2014 писар куріний, гурткова, 2012-2014 новацька виховниця, 
+2015- юнацька
+			</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				2011 Окружний табір " Ми Україні" ст.пл. Олег Хімій, 2013 куріний табір " Довга Панчоха" ст.пл.вірл. Дана Андрухів БлиСк, Новацькі табори , 2013 КВМТ "Говерля" ст.пл. Ярослав Дмитришин ОЗО, міжкуріний табір " на дивних берегах" ст.пл.скоб. Ростислав Ходоровськийь Лч
+Крайовий Вишкільний Табір  2014 ст.пл.скоб. Сашко Свистун , Лч.
+Куріний табір к.ч.56 ім.Мілени Рудницької "Лабіринт Ше" 2015 - бунчужна, комендант - ст.пл.Оксана Зварич.  КМВТ "Говерля" 2015 - підстаршина, комендант- ст. гетьманська вірл. Оксана Келеман.
+			</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				10-ть четвертих, 3-є відзначення
+			</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 56
+		ім. Мілени Рудницької
+		</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Провідництво туристів 3, Скелелазіння 3, Любитель/-ка мистецтва 3, Теренові ігри та змаги 3, Мандрівництво 3, Піклування дітьми 3, 100-ліття Пласту 1, Любитель/-ка мистецтва 2, Мандрівництво 2, Перша допомога 2, Домашня зарадність 2, Табірництво 1, Приятель тварин 1, Перша допомога 1, Любитель/-ка мистецтва 1, Куховарення 1, Домашня зарадність 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>378</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Софія  Станович</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07-06-2010</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10-06-2012</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою19-10-2013</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Гуртковий писар, гурткова(до березня 2014)
+Курінний писар(до липня 2013)
+Станичний скарбник ( з 08.09.2012 до березня 2015), станичний писар(з 02.10.2013 до 10.10.2015), референт УПЮ (з 2013 і далі) виховниця юнацького гуртка "Німфи" у к.ч. 18 ім. Уляни Кравченко( з 21.09.2013)
+			</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Міжокружний "Світанкові  Віхи 3" (2010, Юрій Поліщук, ОХ)
+ Окружний "Наше Кіно" (2011, Люба Журко, СВ)
+ Курінний "Легенда Тіні" ( 2013 в проводі, Дзвінка Загайська, СВ)
+Крайовий "Чота Крилатих"(2013, Дмитро Ярема, ЧоК)
+Міжокружний зимовий "Білий груник"(2014 в проводі, Борис Явір,ПР)
+Станичний "Чортополох"( 2014 в проводі, Мосевич Ігор)
+ КВТ ч. 18(2014, Сашко Свистун, ЛЧ)
+Окружний Львівської округи " Перо одного птаха" (2015, в проводі, Юрій Кунець)
+Курінний "Назустріч сонцю" (2015, в проводі, Дзвенислава Загайська, СВ)
+КММТ "Друга стихія" (2015, Роман Балук, ЧМ)
+			</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				3 відзначення
+2 відзначення
+2 відзначення
+2 відзначення
+			</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t># 443</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>12-02-2016</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 18
+		ім. Уляни Кравченко
+		</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Природознавство 3, Природознавство 2, Природознавство 1, Астрономія 3, Астрономія 1, Астрономія 2, Актороство 1, Домашня зарадність 3, Куховарення 1, Перша допомога 2, Рольовик 1, Огородництво 2, Домашня зарадність 2, Перша допомога 1, Домашня зарадність 1, Журналістика 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>379</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Тарас  Іщик</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Ти ще не третьопробник, для того щоб ти зміг/ла почати здавати третю пробу:</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>380</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Юрій  Сиротич</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14-06-2011</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28-04-2012</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>07-09-2013</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 18/10/2013
+	Дата закінчення - 15/04/2015
+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний (07-09-2013 -- досі), гуртковий (24-08-2013 -- досі).
+			</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				КВВТ "Лицарський хрест" (М. Гнатів), КВВТ "Стольний град" (М. Гнатів), "Вовча школа 2013" (П. Лабінський), КВВТ "Нескорений цвіт" (Л. Журко), "Білий Груник. Малинове варення", "Середземські вогні 2014" (Б. Явір), "КВТ" (О.Свистун)
+			</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4-те відзначення
+			</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> підг к.
+		ім. Михайла Палідовича-Карпатського
+		</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знавець комп’ютерів 3, Астрономія 3, Танки 2, Перша допомога 2, Перо 2, Музика 2, Знавець комп’ютерів 2, Астрономія 2, Актороство 2, Танки 1, Астрономія 1, Перо 1, Перша допомога 1, Музика 1, Знавець комп’ютерів 1, Актороство 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>381</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Галина  Николин</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15-05-2012</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13-07-2013</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою08-03-2014</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 16/03/2014
+	Дата закінчення - 26/04/2015
+</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Гуртковий скарбник 2012 - 2013, курінний скарбник 2013 - сьогодення
+			</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний табір "Легенда тіні", 2013, ст.-пл. Дзвенислава Загайська СВ, Окружний табір "Середземські вогні", 2013, ст.-пл. Борис Явір Іскра, ПР
+			</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Четверте відзначення за зразкову пластову поставу і визначну діяльність на терені гуртка та куреня
+			</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 18
+		ім. Уляни Кравченко
+		</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>382</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>пуста сторінка</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>383</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Назар  Кордюк</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Ти ще не третьопробник, для того щоб ти зміг/ла почати здавати третю пробу:</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>384</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Мар'яна  Байло</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17-04-2010</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>28-04-2012</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою13-04-2014</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				гурткова(01.05.2010 - 5.10.2010) , курінний писар( 05.10.2010 - 12.10.2011), гурткова суддя(07.11.2011 - 15.10.2012) , курінна(02.11.2012 - 17.10.2013)
+			</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний виховно-вишкільний табір(надалі КВВТ) "Вперед і вгору" 2010 рік, КВВТ "На краю світу" 2011 рік, КВВТ "Ubi concordia ibi victoria" 2012 рік, Золота булава 2012,КВВТ"Восьма планета" 2013 рік,Чота Крилатих 2013 рік, ОВВТ "Берег ріки" 2014 рік, КВТ 2014 рік
+			</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				IV відзначення УПЮ за активну діяльність в курені та зразкову пластову поставу
+			</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t># 438</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>09-02-2016</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 26
+		ім. Олени Пчілки
+		</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Домашня зарадність 3, Табірництво 1, Мандрівництво 2, Перша допомога 2, Астрономія 3, Піклування дітьми 3, Скаутське побратимство 1, Приятель тварин 1, Перо 1, Перша допомога 1, Журналістика 1, Домашня зарадність 1, Астрономія 1, Актороство 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>385</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Настя  Дворянська</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18-09-2008</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29-05-2011</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою05-05-2013</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				2011 - курінна суддя
+2012 - курінна
+2014 - курінний писар
+			</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				СВТ- 2011, пл. сен. Ігор Кітелла, ЧК
+Говерля 2012, ст. пл. Василь Мартюк, ОЗО
+СВТ - 2013, ст.пл. Богдан Гургач,ЧК
+КВТ-18 - 2104, ст.пл. скоб. Олександр Свистун, ЛЧ
+Говерля  -2016, ст.пл.гетьм.вірл. Оксана Келеман, КВ
+			</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				5 четвертих відзначень - робота в курені, зразкове ведення діловодства
+2 третіх - зразкове ведення діловодста  в курені, першунство на курінному
+			</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t># 435</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>09-02-2016</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 84
+		ім. Марії Приймаченко
+		</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Перо 2, Сигналізація 3, Пера 3, Графіка 3, Український гердан 1, Спортові ігри 1, Домашня зарадність 1, Домашня зарадність 2, Мандрівництво 2, Писанкарство 2, Приятель тварин 1, Перша допомога 1, Перо 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>386</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Юлія  Прокоф'єва</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11-07-2012</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17-01-2013</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою22-08-2013</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 30/09/2013
+	Дата закінчення - 18/09/2014
+</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний Суддя
+			</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Мамай 2012 ,Герць 2013
+			</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4 відзначення
+			</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> підг к.
+		ім. Святої Мотрони
+		</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Їзда верхи 3, Піклування дітьми 3, Танки 3, Борець 3, </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>387</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Євгенія  Ромашова</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>03-03-2012</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15-07-2012</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою13-04-2013</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 13/04/2013
+	Дата закінчення - 01/09/2014
+</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				2012 заступниця курінної
+2013 курінний скарбник,гуртковий скарбник
+2014 гурткова, хорунжа
+			</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				куріннний табір "72 канал" - 2012 р. - ст.пл. Ксенія Міржва (вже Пукіш)
+"Підйом з переворотом!" - 2012 р. - ст.пл.Борис Явір, ПР
+"Князівство білого каменя" - 2014р. - ст.пл.вірл.Анна Стрілець, Ті
+КВТ 18 0 2014 р. - ст.пл.скоб Сашко Свистун, ЛЧ
+			</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				ІІІ відзначення за допомогу в організації дитячих велоперегонів "Дивогонка" - травень 2013
+ІІІ відзначення за участь у команді "Синергія", що перемогла на Орликіаді-2013
+ІІ відзначення за організацію Свята Весни-2013 ст.Київ
+Пересторог не маю.
+			</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 72
+		ім. Марії-Магдалини Мазепи
+		</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стрілець 1, Природознавство 3, Домашня зарадність 3, Водне Рятівництво 3, Фотографування 2, Український амбасадор 2, Спів 2, Природознавство 2, Плавання 2, Перша допомога 2, Фотографування 1, Український амбасадор 1, Табірництво 1, Приятель тварин 1, Природознавство 1, Перша допомога 1, Куховарення 1, Домашня зарадність 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>388</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Антон  Зубрицький</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16-04-2008</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21-04-2012</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23-11-2013</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 04/11/2013
+	Дата закінчення - 04/05/2015
+</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний 2012-2013
+			</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Кммт 2011,2014, Побурлакуємо світами 2012, Говерля 2013, Курінні 2008,2009,2010,2012,2013,2014
+			</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				2 відзначення
+			</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 19
+		ім. Андрея Шептицького
+		</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Табірництво 1, Куховарення 1, Перо 1, Перо 2, Мандрівництво 2, Домашня зарадність 2, Лещетарство 2, Перша допомога 2, </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>389</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>пуста сторінка</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>390</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Софія  Сеник</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13-11-2007</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13-02-2012</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою13-03-2014</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 20/03/2014
+	Дата закінчення - 20/06/2014
+</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				гурткова 2007-2009
+курінний скарбник 2014
+			</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний табір "Ар-дже-лю-джа", 2008
+Курінний табір "Чарзілля", 2009
+Курінний табір "Вперед і вгору", 2010
+Міжкрайовий табір в Німеччині, 2010
+Мандрівний табір "Підйом з переворотом", 2011
+Побурлакуємо світами, 2012
+Ревор, 2013
+КВТ, 2014
+			</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4 відзначення
+3 відзначення
+			</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 12
+		ім. Марусі Чурай
+		</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Домашня зарадність 1, Провідництво туристів 3, Піклування дітьми 3, Мандрівництво 3, Графіка 3, Водолаження 3, Спів 2, Скелелазіння 2, Провідництво туристів 2, Плавання 2, Писанкарство 2, Перша допомога 2, Перо 2, Мандрівництво 2, Лещетарство 2, Картографія 2, Домашня зарадність 2, Табірництво 1, Провідництво туристів 1, Приятель тварин 1, Природознавство 1, Перша допомога 1, Перо 1, Маскування 1, Любитель/-ка мистецтва 1, Куховарення 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>391</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Олена  Сливка</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>09-02-2008</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16-05-2010</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою06-05-2012</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				1. Гурткова (22.06.2008 - 1.02.2009)
+2. Гуртковий скарбник (1.02.2009 - 6.09.2009)
+3. Гуртковий суддя (6.09.2009 - 16.10.2010)
+4. Гурткова (16.10.2010 - 22.10.2011)
+5. Гуртковий писар (22.10.2011 - 18.11.2012)
+6. Гуртковий скарбник (22.10.2011 - 18.11.2012)
+7. Гуртковий писар (18.11.2012 - 13.10.2013)
+8. Курінний суддя (20.03.2009 - 14.10.2010)
+9. Курінний скарбник (14.10.2010 - 11.09.2011)
+10. Курінна (11.09.2011 - 14.10.2012)
+11. Курінний писар (14.10.2012 - 20.10.2013)
+			</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				- Курінний виховно-вишкільний табір "МКВ", 04-12.08.2008, ст. пл. Уляна Тесля, СВ
+- Курінний виховно-вишкільний табір "Життя то танго", 01-10.08.2009, ст. пл. вірл. ОксанаПужаковська, СВ
+- Курінний виховно-вишкільний табір "Сitius,altius,fortius", 28.06.2010-07.07.2010, ст. пл. вірл. Оксана Пужаковська, СВ
+- Табір історичної стилізації "Світанкові Віхи: Повість Временних Літ", 10-22.07.2011, ст. пл. скоб Роман Задорожний, ОХ
+- Станичний виховно-вишкільний табір "Про100 літо", 2-12.07.2012, ст. пл. вірл. Оксана Пужаковська, СВ
+- Вишкільний табір "Золота Булава", 9-18.08.2012, ст. пл. вірл. Наталія Карабин, Бурх
+- Курінний виховно-вишкільний табір "Го-Го", 13-23.07.2013, ст. пл. вірл. Оксана Пужаковська, СВ
+- Станичний виховно-вишкільний табір "Чорторий", 4-16.07.2014, ст. пл. скоб Володимир Шипівдич, V
+- Крайовий Вишкільний Табір 18, 8-21.08.2014, ст. пл. скоб Сашко Свистун, ЛЧ
+			</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				1) ІІІ відзначення - за зразкову пластову поставу та допомогу у проведенні Андріївських вечорниць - 17.03.12
+2) ІІ відзначення - за зразкову пластову поставу, за прикладне виконання обов'язків писаря та допомогу у проведенні "Повстанської Ватри" - 4.11.12
+3) ІІІ відзначення - за зразкову пластову поставу та прикладне виконання обов'язків провідника гуртка УПЮ, а також за прикладне виконання обов'язків члена проводу курінного табору "ГО-ГО" - 20.10.2013
+4) ІІ відзначення - за сумлінне виконання обов’язків інтенданта на міжстаничному таборі «Чорторий» (4-15 липня 2014 р.) та дуже добру виховницьку діяльність у гуртку «Талановиті Дельфіни» у к. ч. 80 ім. Алли Горської - 25.10.2014
+			</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t># 418</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>07.02.2015</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 80
+		ім. Алли Горської
+		</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Образотворче мистецтво 3, Астрономія 3, Рольовик 1, Образотворче мистецтво 2, Український амбасадор 2, Природознавство 1, Домашня зарадність 2, Домашня зарадність 1, Астрономія 1, Пера 3, Перо 2, Перо 1, Перша допомога 2, Перша допомога 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>392</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Христина  Орищак</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08-11-2003</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12-11-2008</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою12-11-2009</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				-
+			</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				-
+			</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				-
+			</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Ти ще не третьопробник, для того щоб ти зміг/ла почати здавати третю пробу:</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 16
+		ім. Іванки Блажкевич
+		</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>393</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Христина  Заяць</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>03-05-2006</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21-06-2012</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою17-05-2014</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				курінна, 03.09.2012 - 31.11.2013
+курінний суддя, 11.09.2010 - 03.09.2012
+гурткова, 2011-2012
+гуртковий суддя, 2010-2011
+гуртковий писар, 2009-2010
+гуртковий скарбник, 2012-2013
+			</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний табір к.ч.50 2009 "Аратта", ст.пл. Юлія Чернікова, ПС
+курінний табір к.ч.50 2011 "Синій маркер" , ст.пл.вірл. Мар'яна Юрків, Бурх
+курінний табір к.ч.50 2013 "Лондон-Рахів-Львів", ст. пл.вірл. Лідія Чир, L
+КМВТ "Говерля" 2013, ст. пл. Ярослав Дмитришин, ОЗО
+курінний табір к.ч.50 2014 "Таке ж плем'я", ст. пл.вірл. Лідія Чир, L
+Крайовий Вишкільний Табір ч.18 2014, ст.пл.скоб Сашко Свистун, ЛЧ
+			</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				2 відзначення УПЮ, за першунство на крайовому таборі, 31.03.2014
+3 відзначення УПЮ, за підготовку курінного табору "Лондон-Рахів-Львів", 21.12.2014
+3 відзначення УПЮ, за 2 посвідку на КВТ 2014, 21.12.2014
+			</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t># 437</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>09-02-2016</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 50
+		ім. Богдани Світлик
+		</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мандрівництво 3, Графіка 3, Мандрівництво 2, Картографія 2, Музика 2, Перо 2, Пера 3, Перо 1, Табірництво 1, Куховарення 1, Домашня зарадність 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>394</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Тарас  Степанюк</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>01-01-2010</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>08-06-2012</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>03-02-2013</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				курінний скарбник, курінний
+			</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний табір, 2010, ст.пл. Роман Орищенко, ОЗО
+Курінний табір, 2011, ст.пл. Роман Орищенко, ОЗО
+Герць, 2012, ст.пл. Богдан Пацкань, ОЗО
+Курінний, 2013, ст.пл.гетьм.скоб Андрій Лузан, ОЗО
+КВТ, 2014, ст.пл.скоб Сашко Свистун, ЛЧ
+			</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				два третіх відзначення
+			</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t># 413</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>07.02.2015</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 75
+		ім. Героїв бою під Крутами
+		</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Табірництво 1, Табірництво 1, Куховарення 1, Домашня зарадність 1, Їзда верхи 1, Лучник 1, Перша допомога 1, Астрономія 2, Домашня зарадність 2, Знавець комп’ютерів 2, Перо 2, Природознавство 3, Теренові ігри та змаги 3, Астрономія 3, Картографія 2, Астрономія 1, Їзда на велосипед 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>395</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ірина  Бережницька</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>04-05-2007</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10-05-2010</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою05-06-2011</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				1.	20.10.2007 – 09.10.2009 – гурткова2.	 09.10.2009 – 29.10.2010 – гуртковий господар3.	29.10.2010 – по сьогодні – гуртковий писар4.	14.06.2009 – 20.06.2010 – курінний суддя5.	20.06.2010 – 11.09.2011 – курінна6.	11.09.2011 по сьогодні  - головна хорунжа
+			</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				1. Станичний табір “Фама” , 2007 р.2. Курінний табір “Рейс 22 Р.М.” , 2008 р.3. Між станичний цвинтарний табір у Польщі, 2009 р.4. Між курінний табір ”148 Мбіт/сек” , 2009 р.5. Курінний табір”Без тих інших” , 2010 р.6. МВТ”Золота Булава”, 2010 р.7. КМВТ ”Говерля” , 2010 р.8. Курінний табір ” За межею” , 2011 р.9. КММТ ”Друга стихія” , 2011 р.10. КВМТ ”Побурлакуємо світами” , 2011 р.11. Курінний табір ”ЛеВеЛ 22” , 2012 р.12. Курінний табір "Джуманджі 22" , 2013р13. КВТ, 2014р
+			</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4 – за підготовку команди на День Пластуна 2013, (20.03.2013р.)3 – за допомогу в організації Крайової Спартакіади (08.12.08р.)3 – за зразкову пластову поставу, активну пластову діяльність та участь у конкурсі Гетьманівна 2009 (27.12.2009р.)3 –  за зразкове ведення курінного діловодства та активну пластову діяльність (11.09.2011р.)3 – за активну пластову діяльність та перемогу на всеукраїнському змазі “Осінній Рейд” (1310.2011р.)3 – за активну пластову діяльність, та зразкове ведення курінного діловодства (14.10.2012р)2 – за організацію команди та її перемогу на всеукраїнському змазі “Осінній Рейд”, активну пластову діяльність на рівні станиці та зразкову пластову поставу (26.02.2010р.)2 – за здобуття куренем 2 місця у змаганні “Курінь року 2011” (21.12.2012р.)
+			</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t># 406</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>15-08-2014</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 22
+		ім. Марічки Підгірянки
+		</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Актороство 3, Актороство 2, Актороство 1, Природознавство 3, Пера 3, Астрономія 3, Природознавство 2, Перша допомога 2, Перо 2, Піонірство 2, Піонірство 2, Мандрівництво 2, Картографія 2, Астрономія 2, Табірництво 1, Природознавство 1, Перша допомога 1, Перо 1, Музика 1, Куховарення 1, Астрономія 1, Домашня зарадність 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>396</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Костя  Гончар</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 06/04/2014
+	Дата закінчення - 19/09/2014
+</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Гуртковий 2010—2011Гуртковий суддя 2011—2012Курнний скарбник 2011—2012Курінний суддя 2013—2014
+			</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 69
+		ім. Богдана Хмельницького
+		</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Перо 1, Перо 2, Мандрівництво 2, Домашня зарадність 2, Український амбасадор 1, Спортові ігри 1, Спелеотуризм 1, Перша допомога 1, Домашня зарадність 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>397</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Сергій  Рогов</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>01-12-2012</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>09-07-2013</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30-12-2013</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінний суддя.Курінний
+			</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Легіон 16 КВТ 18
+			</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4-те3-тє
+			</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t># 428</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>17.09.2015</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> підг к.
+		ім. Олега Ольжича
+		</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Автознавство 3, Астрономія 3, Піклування дітьми 3, Перша допомога 2, Мандрівництво 2, Військовик 2, Куховарення 1, Приятель тварин 1, Перша допомога 1, Домашня зарадність 1, Астрономія 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>398</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Катерина  Лозинська</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Ти ще не третьопробник, для того щоб ти зміг/ла почати здавати третю пробу:</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>399</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Оля  Кашицька</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30.12.2010</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>07.07.2012</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою19.05.2013</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 13/05/2013
+	Дата закінчення - 23/11/2014
+</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				2010 -2011 -гуртковий суддя;
+2011 - 2012 - гурткова;
+2012 - 2013 - курінний суддя;
+2013 - гуртковий суддя;
+2014 - гурткова.
+			</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Станичний табір "Країна мрій 2: Сто років пластової історії", 2012 р.Б., ст.пл.гетьм. скоб. Любомир Шимків, ОЗО;
+Крайовий спортивно-вишкільний табір "калиновий оберіг" , 2012 р.Б., ст.пл. Сергій Сабо, ЧК;
+Станичний новацький табір "Повір у казку або Полетіли!", 2013 р.Б., пл.сен. Наталя Юзик;
+Міжкурінний табір "16 градусів морозу", 2013 р.Б., ст.пл. Юлія Водяна,Ls;
+Курінний табір "3Н: Незламність. Ніжність. Незалежність." ,2014 р.Б., ст.пл. Юлія Водяна,Ls;
+Крайовий вишкільний табір, 2014 р.Б., ст.пл.скоб. Сашко Свистун, ЛЧ.
+			</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4 відзначення - за активну діяльність у гуртку, квітень 2012 р.Б.;
+3 відзначення - за активну діяльність у курені, квітень 2013 р.Б..
+3 відзначення - за організацію курінного табору, вересень 2014 р.Б.
+2 відзначення - за активну працю на рівні станиці протягом 2013- 2014 р. Б, організацію багатьох станичних акцій та працю в Булаві УПЮ - 25 квітня 2015 р.Б..
+			</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 16
+		ім. Іванки Блажкевич
+		</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Піклування дітьми 3, Любитель/-ка мистецтва 3, Спортові ігри 1, Природознавство 1, Провідництво туристів 1, Писанкарство 2, Фотографування 1, Актороство 1, Куховарення 1, Перо 2, Перо 1, Астрономія 3, Астрономія 2, Астрономія 1, Перша допомога 2, Перша допомога 1, Домашня зарадність 2, Домашня зарадність 1, </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>400</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Олена  Чабан</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01-09-2006</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14-04-2012</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Дата Іменування розвідувачкою13-04-2013</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	Дата початку - 17/06/2013
+	Дата закінчення - 17/12/2014
+</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				курінна 2012- 2013
+писар 2011 -2012
+скарбник  2010 - 2011
+домівкар 2009- 2010
+			</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				Курінні табори з 2008 по 2014
+Побурлакуємо світами - 2010
+Чота Крилатих - 2011
+Говерля - 2012
+КВТ -2014
+			</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+				4 відзначення
+3 відзначення
+3 відзначення
+			</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">к.ч. 26
+		ім. Олени Пчілки
+		</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>нема</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Музика 3, Український амбасадор 2, Український амбасадор 1, Домашня зарадність 3, Піклування дітьми 3, 100-ліття Пласту 1, Перо 2, Перша допомога 2, Музика 2, Домашня зарадність 2, Табірництво 1, Домашня зарадність 1, Музика 1, Перо 1, Перша допомога 1, Куховарення 1, </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>